--- a/docs/mcode-r4/onco-core-GenomicsReport.xlsx
+++ b/docs/mcode-r4/onco-core-GenomicsReport.xlsx
@@ -494,7 +494,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest|http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest)
+    <t xml:space="preserve">Reference(ServiceRequest|MedicationRequest)
 </t>
   </si>
   <si>
@@ -785,7 +785,7 @@
     <t>UsageNote= The typical patterns for codes are:  1)  a LOINC code either as a  translation from a "local" code or as a primary code, or 2)  a local code only if no suitable LOINC exists,  or 3)  both the local and the LOINC translation.   Systems SHALL be capable of sending the local code if one exists.</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/gtr</t>
+    <t>http://hl7.org/fhir/us/mcode/ValueSet/onco-core-GeneticTestVS</t>
   </si>
   <si>
     <t>Event.code</t>

--- a/docs/mcode-r4/onco-core-GenomicsReport.xlsx
+++ b/docs/mcode-r4/onco-core-GenomicsReport.xlsx
@@ -1033,7 +1033,7 @@
     <t>Need to support individual results, or  groups of results, where the result grouping is arbitrary, but meaningful.</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:target.reference.resolve()}
+    <t xml:space="preserve">profile:reference.resolve()}
 </t>
   </si>
   <si>
@@ -1066,7 +1066,7 @@
     <t>GeneticVariantTested: A test for a specific mutation on a particular gene</t>
   </si>
   <si>
-    <t>A test for a specific mutation on a particular gene.</t>
+    <t>A test for a specific mutation on a particular gene. This profile is used to record whether a single discrete variant tested is present or absent (which mCODE denotes as positive or negative respectively).</t>
   </si>
   <si>
     <t>DiagnosticReport.imagingStudy</t>
@@ -1418,7 +1418,7 @@
     <col min="24" max="24" width="46.80859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="68.65625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="31.19140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="25.2109375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
